--- a/Code/Results/Cases/Case_0_208/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_208/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.00678132899664</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.009427242717378</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.007469741675781</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.004957803479268</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.01205679385361</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.01230049299687</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.010348934594897</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.007844659210396</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.013494030585419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.016182097052544</v>
+      </c>
+      <c r="D3">
+        <v>1.018738777708027</v>
+      </c>
+      <c r="E3">
+        <v>1.015906148407093</v>
+      </c>
+      <c r="F3">
+        <v>1.015149686668369</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.021043712693859</v>
+      </c>
+      <c r="K3">
+        <v>1.021392196462062</v>
+      </c>
+      <c r="L3">
+        <v>1.0185674052215</v>
+      </c>
+      <c r="M3">
+        <v>1.017813044680927</v>
+      </c>
+      <c r="N3">
+        <v>1.022493711881235</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1.022069678022927</v>
+      </c>
+      <c r="D4">
+        <v>1.024570191039381</v>
+      </c>
+      <c r="E4">
+        <v>1.021184247298211</v>
+      </c>
+      <c r="F4">
+        <v>1.021537696858122</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.026668295652947</v>
+      </c>
+      <c r="K4">
+        <v>1.027083408399625</v>
+      </c>
+      <c r="L4">
+        <v>1.02370626610698</v>
+      </c>
+      <c r="M4">
+        <v>1.02405879396296</v>
+      </c>
+      <c r="N4">
+        <v>1.028126282393274</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1.02450135180255</v>
+      </c>
+      <c r="D5">
+        <v>1.02697859538777</v>
+      </c>
+      <c r="E5">
+        <v>1.023362867982013</v>
+      </c>
+      <c r="F5">
+        <v>1.024177255296559</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.028990440781617</v>
+      </c>
+      <c r="K5">
+        <v>1.029433310075601</v>
+      </c>
+      <c r="L5">
+        <v>1.02582673150393</v>
+      </c>
+      <c r="M5">
+        <v>1.026639052109086</v>
+      </c>
+      <c r="N5">
+        <v>1.03045172523438</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>1.024907181333398</v>
+      </c>
+      <c r="D6">
+        <v>1.027380537126944</v>
+      </c>
+      <c r="E6">
+        <v>1.02372638661762</v>
+      </c>
+      <c r="F6">
+        <v>1.024617850032753</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.029377937690302</v>
+      </c>
+      <c r="K6">
+        <v>1.029825453245461</v>
+      </c>
+      <c r="L6">
+        <v>1.026180506662511</v>
+      </c>
+      <c r="M6">
+        <v>1.027069718172674</v>
+      </c>
+      <c r="N6">
+        <v>1.030839772433122</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.022102336847582</v>
+      </c>
+      <c r="D7">
+        <v>1.024602537628119</v>
+      </c>
+      <c r="E7">
+        <v>1.021213512724407</v>
+      </c>
+      <c r="F7">
+        <v>1.021573142942349</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.026699487018895</v>
+      </c>
+      <c r="K7">
+        <v>1.027114971615797</v>
+      </c>
+      <c r="L7">
+        <v>1.023734753022219</v>
+      </c>
+      <c r="M7">
+        <v>1.024093445757006</v>
+      </c>
+      <c r="N7">
+        <v>1.028157518054539</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1.010000910656384</v>
+      </c>
+      <c r="D8">
+        <v>1.012616321124082</v>
+      </c>
+      <c r="E8">
+        <v>1.010360211933306</v>
+      </c>
+      <c r="F8">
+        <v>1.008447282519767</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.015135450709916</v>
+      </c>
+      <c r="K8">
+        <v>1.015414822317688</v>
+      </c>
+      <c r="L8">
+        <v>1.013165354246861</v>
+      </c>
+      <c r="M8">
+        <v>1.01125808110261</v>
+      </c>
+      <c r="N8">
+        <v>1.016577059487588</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.9870109449590371</v>
+      </c>
+      <c r="D9">
+        <v>0.9898431122916074</v>
+      </c>
+      <c r="E9">
+        <v>0.9896965035207356</v>
+      </c>
+      <c r="F9">
+        <v>0.9835512614882993</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.9931348337269041</v>
+      </c>
+      <c r="K9">
+        <v>0.9931639964345244</v>
+      </c>
+      <c r="L9">
+        <v>0.9930179164423999</v>
+      </c>
+      <c r="M9">
+        <v>0.9868949953183777</v>
+      </c>
+      <c r="N9">
+        <v>0.9945451991049539</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.9702857821178067</v>
+      </c>
+      <c r="D10">
+        <v>0.9732745111104403</v>
+      </c>
+      <c r="E10">
+        <v>0.9746333274439489</v>
+      </c>
+      <c r="F10">
+        <v>0.9654660990841516</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9771071458585433</v>
+      </c>
+      <c r="K10">
+        <v>0.9769602844019719</v>
+      </c>
+      <c r="L10">
+        <v>0.978313533074157</v>
+      </c>
+      <c r="M10">
+        <v>0.9691842059921933</v>
+      </c>
+      <c r="N10">
+        <v>0.9784947500814188</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.9626341206639898</v>
+      </c>
+      <c r="D11">
+        <v>0.9656942969840348</v>
+      </c>
+      <c r="E11">
+        <v>0.9677349370523578</v>
+      </c>
+      <c r="F11">
+        <v>0.957198310379786</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.969769123624075</v>
+      </c>
+      <c r="K11">
+        <v>0.9695432262412167</v>
+      </c>
+      <c r="L11">
+        <v>0.9715750410205081</v>
+      </c>
+      <c r="M11">
+        <v>0.9610844364222403</v>
+      </c>
+      <c r="N11">
+        <v>0.9711463070136946</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.9597222858193114</v>
+      </c>
+      <c r="D12">
+        <v>0.9628096338466285</v>
+      </c>
+      <c r="E12">
+        <v>0.9651087136327675</v>
+      </c>
+      <c r="F12">
+        <v>0.9540528877338301</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.9669758116517528</v>
+      </c>
+      <c r="K12">
+        <v>0.966720067827418</v>
+      </c>
+      <c r="L12">
+        <v>0.9690090045576292</v>
+      </c>
+      <c r="M12">
+        <v>0.9580024576331574</v>
+      </c>
+      <c r="N12">
+        <v>0.9683490282179742</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.9603501842629034</v>
+      </c>
+      <c r="D13">
+        <v>0.9634316736962744</v>
+      </c>
+      <c r="E13">
+        <v>0.9656750705620848</v>
+      </c>
+      <c r="F13">
+        <v>0.9547311172487315</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.9675781899624019</v>
+      </c>
+      <c r="K13">
+        <v>0.96732887162243</v>
+      </c>
+      <c r="L13">
+        <v>0.9695624132478604</v>
+      </c>
+      <c r="M13">
+        <v>0.9586670287837379</v>
+      </c>
+      <c r="N13">
+        <v>0.9689522619749181</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.9623949011854525</v>
+      </c>
+      <c r="D14">
+        <v>0.965457310070949</v>
+      </c>
+      <c r="E14">
+        <v>0.967519202789246</v>
+      </c>
+      <c r="F14">
+        <v>0.9569398831038921</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.9695396582218317</v>
+      </c>
+      <c r="K14">
+        <v>0.9693113041231705</v>
+      </c>
+      <c r="L14">
+        <v>0.9713642649209763</v>
+      </c>
+      <c r="M14">
+        <v>0.9608312313976177</v>
+      </c>
+      <c r="N14">
+        <v>0.9709165157442603</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.9636452179480078</v>
+      </c>
+      <c r="D15">
+        <v>0.9666959573415436</v>
+      </c>
+      <c r="E15">
+        <v>0.9686467282570373</v>
+      </c>
+      <c r="F15">
+        <v>0.9582906277523321</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.9707389600019973</v>
+      </c>
+      <c r="K15">
+        <v>0.97052345568901</v>
+      </c>
+      <c r="L15">
+        <v>0.9724658487949571</v>
+      </c>
+      <c r="M15">
+        <v>0.9621546610208082</v>
+      </c>
+      <c r="N15">
+        <v>0.9721175206705154</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.9707843078683116</v>
+      </c>
+      <c r="D16">
+        <v>0.9737683789436576</v>
+      </c>
+      <c r="E16">
+        <v>0.9750826312383695</v>
+      </c>
+      <c r="F16">
+        <v>0.9660048895267584</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.9775851238252986</v>
+      </c>
+      <c r="K16">
+        <v>0.9774434430375386</v>
+      </c>
+      <c r="L16">
+        <v>0.9787523296487487</v>
+      </c>
+      <c r="M16">
+        <v>0.9697119819603855</v>
+      </c>
+      <c r="N16">
+        <v>0.9789734068317114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.9751475274022569</v>
+      </c>
+      <c r="D17">
+        <v>0.9780908121434135</v>
+      </c>
+      <c r="E17">
+        <v>0.9790142559792265</v>
+      </c>
+      <c r="F17">
+        <v>0.9707211926651098</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.9817678912356135</v>
+      </c>
+      <c r="K17">
+        <v>0.9816717211594632</v>
+      </c>
+      <c r="L17">
+        <v>0.9825915137369349</v>
+      </c>
+      <c r="M17">
+        <v>0.9743315179447627</v>
+      </c>
+      <c r="N17">
+        <v>0.9831621142515191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.9776536245258944</v>
+      </c>
+      <c r="D18">
+        <v>0.9805734655223818</v>
+      </c>
+      <c r="E18">
+        <v>0.9812717966691316</v>
+      </c>
+      <c r="F18">
+        <v>0.9734306583099663</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.9841698344859344</v>
+      </c>
+      <c r="K18">
+        <v>0.9840999433363921</v>
+      </c>
+      <c r="L18">
+        <v>0.9847955647643403</v>
+      </c>
+      <c r="M18">
+        <v>0.976985100322839</v>
+      </c>
+      <c r="N18">
+        <v>0.9855674685367625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.9785017651181611</v>
+      </c>
+      <c r="D19">
+        <v>0.9814136688371091</v>
+      </c>
+      <c r="E19">
+        <v>0.9820357053745955</v>
+      </c>
+      <c r="F19">
+        <v>0.9743477223068117</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.9849826404346057</v>
+      </c>
+      <c r="K19">
+        <v>0.9849216662910603</v>
+      </c>
+      <c r="L19">
+        <v>0.9855413046391542</v>
+      </c>
+      <c r="M19">
+        <v>0.977883200458699</v>
+      </c>
+      <c r="N19">
+        <v>0.9863814287631109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.9746834724075739</v>
+      </c>
+      <c r="D20">
+        <v>0.9776310967684684</v>
+      </c>
+      <c r="E20">
+        <v>0.9785961724749408</v>
+      </c>
+      <c r="F20">
+        <v>0.9702195261455933</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.9813230813513373</v>
+      </c>
+      <c r="K20">
+        <v>0.9812220564302653</v>
+      </c>
+      <c r="L20">
+        <v>0.9821833030810775</v>
+      </c>
+      <c r="M20">
+        <v>0.9738401748000529</v>
+      </c>
+      <c r="N20">
+        <v>0.9827166726861869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.9617947791779239</v>
+      </c>
+      <c r="D21">
+        <v>0.9648627885798344</v>
+      </c>
+      <c r="E21">
+        <v>0.9669779806523006</v>
+      </c>
+      <c r="F21">
+        <v>0.9562915891189017</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.9689639925336133</v>
+      </c>
+      <c r="K21">
+        <v>0.9687294790780039</v>
+      </c>
+      <c r="L21">
+        <v>0.9708354704452804</v>
+      </c>
+      <c r="M21">
+        <v>0.9601960303199181</v>
+      </c>
+      <c r="N21">
+        <v>0.9703400325447346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.953282842475354</v>
+      </c>
+      <c r="D22">
+        <v>0.9564302594704455</v>
+      </c>
+      <c r="E22">
+        <v>0.9592989837035878</v>
+      </c>
+      <c r="F22">
+        <v>0.9470984536014329</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.9607969237426358</v>
+      </c>
+      <c r="K22">
+        <v>0.9604756092544005</v>
+      </c>
+      <c r="L22">
+        <v>0.9633311221463076</v>
+      </c>
+      <c r="M22">
+        <v>0.9511874035590427</v>
+      </c>
+      <c r="N22">
+        <v>0.9621613655792979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.9578370230461271</v>
+      </c>
+      <c r="D23">
+        <v>0.9609419597248078</v>
+      </c>
+      <c r="E23">
+        <v>0.9634080774757056</v>
+      </c>
+      <c r="F23">
+        <v>0.952016632006493</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.9651670499106089</v>
+      </c>
+      <c r="K23">
+        <v>0.9648920479107428</v>
+      </c>
+      <c r="L23">
+        <v>0.9673471463316174</v>
+      </c>
+      <c r="M23">
+        <v>0.9560071379047734</v>
+      </c>
+      <c r="N23">
+        <v>0.9665376978276899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.974893278481335</v>
+      </c>
+      <c r="D24">
+        <v>0.9778389408910838</v>
+      </c>
+      <c r="E24">
+        <v>0.9787851962229887</v>
+      </c>
+      <c r="F24">
+        <v>0.9704463351718507</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.9815241880066391</v>
+      </c>
+      <c r="K24">
+        <v>0.9814253576003563</v>
+      </c>
+      <c r="L24">
+        <v>0.9823678643950979</v>
+      </c>
+      <c r="M24">
+        <v>0.9740623174196684</v>
+      </c>
+      <c r="N24">
+        <v>0.9829180649360065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9931779103041123</v>
+      </c>
+      <c r="D25">
+        <v>0.9959521492526862</v>
+      </c>
+      <c r="E25">
+        <v>0.9952446215706411</v>
+      </c>
+      <c r="F25">
+        <v>0.9902249468935769</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.9990401239635307</v>
+      </c>
+      <c r="K25">
+        <v>0.9991354105500918</v>
+      </c>
+      <c r="L25">
+        <v>0.9984303080631696</v>
+      </c>
+      <c r="M25">
+        <v>0.9934279488650281</v>
+      </c>
+      <c r="N25">
+        <v>1.000458875531063</v>
       </c>
     </row>
   </sheetData>
